--- a/output/invoice_analyse.xlsx
+++ b/output/invoice_analyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>invoice_num</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>money</t>
         </is>
       </c>
@@ -448,71 +453,1846 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7085.0.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7085</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电01-住宿1638.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5000.0.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5000</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电02-399.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4500.0.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4500</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电03-2100.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4500.0.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4500</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电04-204.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>34561.15.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>34561.15</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电05-196.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>503280.0.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>503280</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电06-400.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>507730.0.pdf</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>507730</v>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电07-1556.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电08-153.53.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>153.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电09-177.15.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>177.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电10-153.53.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>153.53</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电11.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电12-191.82.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>191.82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电13-369.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电14-373.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电15-300.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电16-191.82.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>191.82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电17-191.82.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>191.82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电18.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>191.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电19-198.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电20-219.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电21-198.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电22.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电23-219.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电24-1104.45.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1104.45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电25-3313.35.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3313.35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电26-188.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电27-235.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电28-281.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电29.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电30-188.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电31-235.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电32-281.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电33.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电34-198.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电35.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电36-198.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电37-207.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电38-207.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电39-200.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电40-233.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电41.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电42.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电43.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电45-204.5.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电46-176.71.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>176.71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电47-204.5.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电48-213.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电49-168.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电50.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电51-168.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电52-1104.45.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1104.45</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电53-3313.35.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3313.35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电54.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电55-218.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电56-218.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电57-191.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电59.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>47610</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电60.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>21465.6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电61.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电62-378.14.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>378.14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电63.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>49560</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电64.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电65-698.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电66-41500.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电67-1104.45.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1104.45</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电68-3313.35.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>3313.35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电69.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>539910</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\国内旅客运输01.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['25529147483000026167']</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>314.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\国内旅客运输02.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['25429165818000080864']</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>314.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费01.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费02.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>57.32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费03.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>63.38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费04.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>297.51</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费05.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>67.02</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费06.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费07.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费08.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费09.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费10.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费11.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>92.56999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费12.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>170.43</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费13.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>120.21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费14.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>512.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费15.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费16.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费17.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费18.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>229.28</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费19.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>295.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费20.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>342.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费21.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费22.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费23.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费24.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费25.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费26.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费27.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>60.59</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费28.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费29.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>171.96</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费30.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费31.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费32.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费33.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费34.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费35.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>40.81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费36.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>114.14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费37.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费38.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费39.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>40.45</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费40.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>155.92</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费41.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>420.12</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费42.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费43.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费44.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>158.63</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费45.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费46.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>57.19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票12.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票13.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票14.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>['25419165773002419690']</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票15.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>['25429165818001648820']</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>314.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票19.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票20.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子票16.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>786.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子票18.pdf'&gt;</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/output/invoice_analyse.xlsx
+++ b/output/invoice_analyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,133 +441,4922 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>invoice_num</t>
+          <t>数电票号码</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>发票号码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>开票日期</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>票面税额</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>有效抵扣税额</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>购买方识别号</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电01-住宿1638.pdf'&gt;</t>
+          <t>全电01-住宿1638-1638-1638.00.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>25342000000001120935</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.03</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1638</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\全电69.pdf'&gt;</t>
+          <t>全电01-住宿1638-1638.00.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>539910</v>
+          <t>25342000000001120935</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.03</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\国内旅客运输01.pdf'&gt;</t>
+          <t>全电02-399-399.00.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['25529147483000026167']</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>314.5</v>
-      </c>
+          <t>25342000000001347746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.03</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>399</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\国内旅客运输02.pdf'&gt;</t>
+          <t>全电03-2100-2100-2100.00.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['25429165818000080864']</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>314.5</v>
+          <t xml:space="preserve">5342000000001408441
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01.03</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>118.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>118.87</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费01.pdf'&gt;</t>
+          <t>全电03-2100-2100.00.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35.01</v>
+          <t xml:space="preserve">5342000000001408441
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.01.03</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>118.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>118.87</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\通行费02.pdf'&gt;</t>
+          <t>全电04-204-204-204.00.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>57.32</v>
+          <t>25522000000006796955</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.18</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>204</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票12.pdf'&gt;</t>
+          <t>全电04-204-204.00.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>115.5</v>
+          <t>25522000000006796955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.18</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>204</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;_io.BufferedReader name='d:\\develops\\python\\office_tools\\input\\高铁电子发票13.pdf'&gt;</t>
+          <t>全电05-196-196-196.00.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>25522000000006727563</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.18</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>196</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>全电05-196-196.00.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25522000000006727563</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.18</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>196</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>全电06-400-400.00.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25522000000006737794</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.18</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>400</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>全电07-1556-1556.00.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25432000000005443165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.11</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1556</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>全电08-153-153.53.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000009370481
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.01.22</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>153.53</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>全电09-177-177.15.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000009371211
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.01.22</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>177.15</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>全电10-153-153.53.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000010090326
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.01.23</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>153.53</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>全电11-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25522000000005698239</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.01.16</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>300</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>全电12-191-191.82.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000015791205
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.02.21</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>191.82</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>全电13-369-369.00.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432000000015611922
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.02.03</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>369</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>全电14-373-373.00.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25452000000013801360</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.02.09</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>373</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>全电15-300-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25522000000014965963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.02.20</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>300</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>全电16-191-191.82.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000016507666
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.02.24</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>191.82</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>全电17-191-191.82.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000015820968
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02.21</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>191.82</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>全电18-191.82.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5522000000016488160
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.02.24</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>191.82</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>全电19-198-198.00.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>25522000000021271599</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.06</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>198</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>全电20-219-219.00.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25522000000022916814</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.12</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>219</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>全电21-198-198.00.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25522000000021213490</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.06</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>198</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>全电22-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25522000000022098160</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.10</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>300</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>全电23-219-219.00.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>25522000000022926447</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.12</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>219</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>全电24-1104-1104.45.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25522000000022574567</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.11</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1104.45</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>127.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>127.06</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>全电25-3313-3313.35.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>25522000000022516807</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.11</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3313.35</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>全电26-188-188.00.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25522000000027811688</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.26</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>188</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>全电27-235-235.00.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25522000000029047306</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.27</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>235</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>全电28-281-281.00.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25522000000029766477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.28</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>281</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>全电29-235.00.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>25522000000029125053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.27</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>235</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>全电30-188-188.00.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>25522000000027725357</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.26</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>188</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>全电31-235-235.00.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25522000000029056905</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.27</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>235</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>全电32-281-281.00.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25522000000029766561</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.28</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>281</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>全电33-758.00.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>25432000000039636088</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.03.28</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>758</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>全电34-198-198.00.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>25522000000033436693</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.05</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>198</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>全电35-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>25522000000032670746</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.02</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>300</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>全电36-198-198.00.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>25522000000033417036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.05</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>198</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>全电37-207-207.00.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>25522000000037273532</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.19</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>207</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>全电38-207-207.00.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>25522000000037847109</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.22</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>207</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>全电39-200-200.00.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25127000000135894728</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.28</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>200</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>全电40-233-233.00.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>25127000000135894727</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.04.28</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>233</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>全电41-218.00.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>25522000000044038054</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.13</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>218</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>全电42-218.00.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>25522000000044087493</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.13</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>218</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>全电43-218.00.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>25522000000044009079</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.13</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>218</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>全电45-204-204.50.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>25522000000046410325</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.21</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>全电46-176-176.71.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>25522000000046381027</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.21</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>176.71</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>全电47-204-204.50.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>25522000000046361203</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.21</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>全电48-213-213.00.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>25452000000057378761</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.05.27</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>213</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>全电49-168-168.00.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>25522000000052376874</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.11</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>168</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>全电50-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>25522000000051183284</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.06</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>300</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>全电51-168-168.00.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>25522000000052462948</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.11</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>168</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>全电52-1104-1104.45.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>25522000000052084270</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.10</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1104.45</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>127.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>127.06</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>全电53-3313-3313.35.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>25522000000052104048</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.10</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3313.35</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>全电54-698.00.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>25432000000076646741</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.11</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>698</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>全电55-218-218.00.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>25522000000055135432</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.23</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>218</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>全电56-218-218.00.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>25522000000055017936</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.23</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>218</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>全电57-191-191.00.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>25522000000056377156</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.06.26</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>191</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>全电59-47610.00.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>25462000000025317086</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.07.18</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>47610</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5477.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5477.26</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>全电60-21465.60.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>25462000000025633214</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.07.21</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>21465.6</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2469.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2469.49</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>全电61-580.00.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>25452000000080629923</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.07.21</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>580</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>全电62-378-378.14.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>25452000000079652493</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.07.17</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>378.14</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>全电63-49560.00.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>25462000000026559889</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.07.28</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>49560</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5701.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5701.59</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>全电64-500.00.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>25442000000455302098</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.07.28</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>500</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>全电65-698-698.00.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>25432000000105454131</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.08.06</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>698</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>全电66-41500-41500.00.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>25442000000486529176</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.08.11</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>41500</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1208.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1208.74</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>全电67-1104-1104.45.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>25522000000068483040</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.08.15</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1104.45</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>127.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>127.06</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>全电68-3313-3313.35.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>25522000000068375139</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.08.15</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3313.35</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>全电69-539910-539910.00.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>25462000000029695842</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.08.18</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>539910</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>62113.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>62113.54</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>全电69-539910.00.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>25462000000029695842</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+.08.18</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>539910</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>62113.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>62113.54</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>通行费01-35-35.01.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>052001700112</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01819292</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>通行费01-35.01.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>052001700112</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01819292</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>通行费02-57-57.32.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>66467330</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>57.32</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>通行费02-57.32.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>66467330</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>57.32</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>通行费03-63.38.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>66601619</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>通行费04-297.51.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>76919237</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>297.51</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>通行费05-67.02.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>65019462</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>通行费06-20.79.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>59101349</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>通行费07-7.70.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>53240642</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>通行费08-0.60.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>53523173</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>通行费09-29.63.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>052001700112</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>18193581</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>通行费10-26.82.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>052001700112</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01794379</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>通行费11-92.57.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>67735304</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>92.56999999999999</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>通行费12-170.43.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>66467341</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>170.43</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>通行费13-120.21.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>66415058</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>120.21</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>通行费14-512.20.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>76718057</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>512.2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>通行费15-74.80.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>65019502</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>通行费16-1.77.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>77668899</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>通行费17-21.86.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>66956161</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>通行费18-229.28.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>68114139</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>229.28</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>通行费19-295.16.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>68004347</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>295.16</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>通行费20-342.10.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>80265697</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>342.1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>通行费21-1.16.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>77912584</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>通行费22-10.55.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>044002400112</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>74696260</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>通行费23-5.71.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>045002200112</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>25434256</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>通行费24-15.40.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>53258375</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>通行费25-9.30.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>54051000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>通行费26-59.26.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>052001700112</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>18226809</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>通行费27-60.59.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>67799604</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>通行费28-29.07.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>044001843112</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>68988852</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>通行费29-171.96.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>68114141</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>171.96</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>通行费30-4.63.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>044001717112</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>09398559</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>通行费31-11.24.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>044001723112</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>30469183</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>通行费32-14.24.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>044001723112</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>28723200</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>通行费33-22.98.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>044001723112</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>31531308</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>通行费34-21.54.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>044001739112</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>14293302</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>通行费35-40.81.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>045002200112</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>34133249</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>40.81</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>通行费36-114.14.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>045002200112</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>74315362</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>114.14</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>通行费37-31.78.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>045002200112</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>74518106</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>通行费38-24.18.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>045002200112</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>75217428</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>通行费39-40.45.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>045002200112</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>70159351</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>通行费40-155.92.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>68004349</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>155.92</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>通行费41-420.12.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>80194120</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>420.12</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>通行费42-3.16.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>77912585</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>通行费43-14.30.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>67046554</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>通行费44-158.63.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>044002400112</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>83367223</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>158.63</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>通行费45-18.04.pdf</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>044002400112</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>82891548</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>通行费46-57.19.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>76630797</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025.03.03</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>57.19</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>高铁电子发票12-115-115.50.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>25349119343000116078</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>高铁电子发票12-115-115.50.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>25349119343000116078</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>高铁电子发票12-115.50.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>25349119343000116078</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>高铁电子发票13-300-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>25349119423001506679</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>300</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>高铁电子发票13-300-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>25349119423001506679</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>300</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>高铁电子发票13-300.00.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>25349119423001506679</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>300</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>高铁电子发票19-9.00.pdf</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>25419165705000098019</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>9</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>高铁电子发票20-139.00.pdf</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>25509130077000592376</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>139</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>高铁电子票16-786.50.pdf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>25529147483000542835</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>高铁电子票18-109.00.pdf</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>25419165499000036231</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>109</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/invoice_analyse.xlsx
+++ b/output/invoice_analyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>全电01-住宿1638-1638-1638.00.pdf</t>
+          <t>全电01-住宿1638-1638.00.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,8 +489,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.03</t>
+          <t>2025.01.03</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -515,32 +514,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>全电01-住宿1638-1638.00.pdf</t>
+          <t>全电02-399-399.00.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25342000000001120935</t>
+          <t>25342000000001347746</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.03</t>
+          <t>2025.01.03</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1638</v>
+        <v>399</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>22.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>22.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -552,65 +550,68 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>全电02-399-399.00.pdf</t>
+          <t>全电03-2100-2100.00.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25342000000001347746</t>
+          <t xml:space="preserve">5342000000001408441
+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.03</t>
+          <t>2025.01.03</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>399</v>
+        <v>2100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22.58</t>
+          <t>118.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22.58</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>118.87</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>全电03-2100-2100-2100.00.pdf</t>
+          <t>全电04-204-204.00.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">5342000000001408441
-</t>
+          <t>25522000000006796955</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01.03</t>
+          <t>2025.01.18</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2100</v>
+        <v>204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>118.87</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>118.87</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -622,32 +623,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>全电03-2100-2100.00.pdf</t>
+          <t>全电05-196-196.00.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">5342000000001408441
-</t>
+          <t>25522000000006727563</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.01.03</t>
+          <t>2025.01.18</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2100</v>
+        <v>196</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>118.87</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>118.87</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -659,32 +659,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>全电04-204-204-204.00.pdf</t>
+          <t>全电06-400-400.00.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25522000000006796955</t>
+          <t>25522000000006737794</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.18</t>
+          <t>2025.01.18</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -696,32 +695,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>全电04-204-204.00.pdf</t>
+          <t>全电07-1556-1556.00.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25522000000006796955</t>
+          <t>25432000000005443165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.18</t>
+          <t>2025.01.11</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>204</v>
+        <v>1556</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>88.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>88.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -733,32 +731,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>全电05-196-196-196.00.pdf</t>
+          <t>全电08-153-153.53.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25522000000006727563</t>
+          <t xml:space="preserve">5522000000009370481
+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.18</t>
+          <t>2025.01.22</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>196</v>
+        <v>153.53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -770,32 +768,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>全电05-196-196.00.pdf</t>
+          <t>全电09-177-177.15.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25522000000006727563</t>
+          <t xml:space="preserve">5522000000009371211
+</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.18</t>
+          <t>2025.01.22</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>196</v>
+        <v>177.15</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -807,32 +805,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>全电06-400-400.00.pdf</t>
+          <t>全电10-153-153.53.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25522000000006737794</t>
+          <t xml:space="preserve">5522000000010090326
+</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.18</t>
+          <t>2025.01.23</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>400</v>
+        <v>153.53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -844,32 +842,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>全电07-1556-1556.00.pdf</t>
+          <t>全电11-300.00.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25432000000005443165</t>
+          <t>25522000000005698239</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.11</t>
+          <t>2025.01.16</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1556</v>
+        <v>300</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -881,32 +878,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>全电08-153-153.53.pdf</t>
+          <t>全电12-191-191.82.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000009370481
+          <t xml:space="preserve">5522000000015791205
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.01.22</t>
+          <t>2025.02.21</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>153.53</v>
+        <v>191.82</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -918,32 +915,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>全电09-177-177.15.pdf</t>
+          <t>全电13-369-369.00.pdf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000009371211
+          <t xml:space="preserve">5432000000015611922
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.01.22</t>
+          <t>2025.02.03</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>177.15</v>
+        <v>369</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -955,32 +952,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>全电10-153-153.53.pdf</t>
+          <t>全电14-373-373.00.pdf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000010090326
-</t>
+          <t>25452000000013801360</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.01.23</t>
+          <t>2025.02.09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>153.53</v>
+        <v>373</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -992,19 +988,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>全电11-300.00.pdf</t>
+          <t>全电15-300-300.00.pdf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25522000000005698239</t>
+          <t>25522000000014965963</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.01.16</t>
+          <t>2025.02.20</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1020,24 +1015,28 @@
           <t>34.51</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>全电12-191-191.82.pdf</t>
+          <t>全电16-191-191.82.pdf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000015791205
+          <t xml:space="preserve">5522000000016507666
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.02.21</t>
+          <t>2025.02.24</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1062,32 +1061,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>全电13-369-369.00.pdf</t>
+          <t>全电17-191-191.82.pdf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">5432000000015611922
+          <t xml:space="preserve">5522000000015820968
 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.02.03</t>
+          <t>2025.02.21</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>369</v>
+        <v>191.82</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1099,32 +1098,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>全电14-373-373.00.pdf</t>
+          <t>全电18-191.82.pdf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25452000000013801360</t>
+          <t xml:space="preserve">5522000000016488160
+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.02.09</t>
+          <t>2025.02.24</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>373</v>
+        <v>191.82</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1136,65 +1135,67 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>全电15-300-300.00.pdf</t>
+          <t>全电19-198-198.00.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25522000000014965963</t>
+          <t>25522000000021271599</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.02.20</t>
+          <t>2025.03.06</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>34.51</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>34.51</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>全电16-191-191.82.pdf</t>
+          <t>全电20-219-219.00.pdf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000016507666
-</t>
+          <t>25522000000022916814</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.02.24</t>
+          <t>2025.03.12</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>191.82</v>
+        <v>219</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1206,32 +1207,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>全电17-191-191.82.pdf</t>
+          <t>全电21-198-198.00.pdf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000015820968
-</t>
+          <t>25522000000021213490</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.02.21</t>
+          <t>2025.03.06</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>191.82</v>
+        <v>198</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1243,32 +1243,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>全电18-191.82.pdf</t>
+          <t>全电22-300.00.pdf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">5522000000016488160
-</t>
+          <t>25522000000022098160</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.02.24</t>
+          <t>2025.03.10</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>191.82</v>
+        <v>300</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1280,32 +1279,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>全电19-198-198.00.pdf</t>
+          <t>全电23-219-219.00.pdf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>25522000000021271599</t>
+          <t>25522000000022926447</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.06</t>
+          <t>2025.03.12</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1317,32 +1315,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>全电20-219-219.00.pdf</t>
+          <t>全电24-1104-1104.45.pdf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25522000000022916814</t>
+          <t>25522000000022574567</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.12</t>
+          <t>2025.03.11</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>219</v>
+        <v>1104.45</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1354,32 +1351,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>全电21-198-198.00.pdf</t>
+          <t>全电25-3313-3313.35.pdf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25522000000021213490</t>
+          <t>25522000000022516807</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.06</t>
+          <t>2025.03.11</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>198</v>
+        <v>3313.35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1391,65 +1387,67 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>全电22-300.00.pdf</t>
+          <t>全电26-188-188.00.pdf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25522000000022098160</t>
+          <t>25522000000027811688</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.10</t>
+          <t>2025.03.26</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>34.51</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>34.51</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>全电23-219-219.00.pdf</t>
+          <t>全电27-235-235.00.pdf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25522000000022926447</t>
+          <t>25522000000029047306</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.12</t>
+          <t>2025.03.27</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1461,85 +1459,90 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>全电24-1104-1104.45.pdf</t>
+          <t>全电28-281-281.00.pdf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>25522000000022574567</t>
+          <t>25522000000029766477</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.11</t>
+          <t>2025.03.28</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1104.45</v>
+        <v>281</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>127.06</t>
+          <t>15.91</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>127.06</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>全电25-3313-3313.35.pdf</t>
+          <t>全电29-235.00.pdf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25522000000022516807</t>
+          <t>25522000000029125053</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.11</t>
+          <t>2025.03.27</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3313.35</v>
+        <v>235</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>187.55</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>187.55</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>全电26-188-188.00.pdf</t>
+          <t>全电30-188-188.00.pdf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>25522000000027811688</t>
+          <t>25522000000027725357</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.26</t>
+          <t>2025.03.26</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1564,19 +1567,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>全电27-235-235.00.pdf</t>
+          <t>全电31-235-235.00.pdf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>25522000000029047306</t>
+          <t>25522000000029056905</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.27</t>
+          <t>2025.03.27</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1601,19 +1603,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>全电28-281-281.00.pdf</t>
+          <t>全电32-281-281.00.pdf</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>25522000000029766477</t>
+          <t>25522000000029766561</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.28</t>
+          <t>2025.03.28</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1638,32 +1639,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>全电29-235.00.pdf</t>
+          <t>全电33-758.00.pdf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>25522000000029125053</t>
+          <t>25432000000039636088</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.27</t>
+          <t>2025.03.28</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>235</v>
+        <v>758</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>42.91</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>42.91</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1675,32 +1675,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>全电30-188-188.00.pdf</t>
+          <t>全电34-198-198.00.pdf</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>25522000000027725357</t>
+          <t>25522000000033436693</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.26</t>
+          <t>2025.04.05</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1712,32 +1711,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>全电31-235-235.00.pdf</t>
+          <t>全电35-300.00.pdf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25522000000029056905</t>
+          <t>25522000000032670746</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.27</t>
+          <t>2025.04.02</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1749,32 +1747,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>全电32-281-281.00.pdf</t>
+          <t>全电36-198-198.00.pdf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25522000000029766561</t>
+          <t>25522000000033417036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.28</t>
+          <t>2025.04.05</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>15.91</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15.91</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1786,32 +1783,31 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>全电33-758.00.pdf</t>
+          <t>全电37-207-207.00.pdf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>25432000000039636088</t>
+          <t>25522000000037273532</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.03.28</t>
+          <t>2025.04.19</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>758</v>
+        <v>207</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>42.91</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>42.91</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1823,32 +1819,31 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>全电34-198-198.00.pdf</t>
+          <t>全电38-207-207.00.pdf</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25522000000033436693</t>
+          <t>25522000000037847109</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.05</t>
+          <t>2025.04.22</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1860,65 +1855,67 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>全电35-300.00.pdf</t>
+          <t>全电39-200-200.00.pdf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>25522000000032670746</t>
+          <t>25127000000135894728</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.02</t>
+          <t>2025.04.28</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>34.51</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>34.51</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>全电36-198-198.00.pdf</t>
+          <t>全电40-233-233.00.pdf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>25522000000033417036</t>
+          <t>25127000000135894727</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.05</t>
+          <t>2025.04.28</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1930,32 +1927,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>全电37-207-207.00.pdf</t>
+          <t>全电41-218.00.pdf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25522000000037273532</t>
+          <t>25522000000044038054</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.19</t>
+          <t>2025.05.13</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1967,32 +1963,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>全电38-207-207.00.pdf</t>
+          <t>全电42-218.00.pdf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>25522000000037847109</t>
+          <t>25522000000044087493</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.22</t>
+          <t>2025.05.13</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2004,32 +1999,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>全电39-200-200.00.pdf</t>
+          <t>全电43-218.00.pdf</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25127000000135894728</t>
+          <t>25522000000044009079</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.28</t>
+          <t>2025.05.13</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2041,32 +2035,31 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>全电40-233-233.00.pdf</t>
+          <t>全电45-204-204.50.pdf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25127000000135894727</t>
+          <t>25522000000046410325</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.04.28</t>
+          <t>2025.05.21</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>233</v>
+        <v>204.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2078,32 +2071,31 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>全电41-218.00.pdf</t>
+          <t>全电46-176-176.71.pdf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>25522000000044038054</t>
+          <t>25522000000046381027</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.13</t>
+          <t>2025.05.21</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>218</v>
+        <v>176.71</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2115,32 +2107,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>全电42-218.00.pdf</t>
+          <t>全电47-204-204.50.pdf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25522000000044087493</t>
+          <t>25522000000046361203</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.13</t>
+          <t>2025.05.21</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>218</v>
+        <v>204.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2152,32 +2143,31 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>全电43-218.00.pdf</t>
+          <t>全电48-213-213.00.pdf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25522000000044009079</t>
+          <t>25452000000057378761</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.13</t>
+          <t>2025.05.27</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2189,32 +2179,31 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>全电45-204-204.50.pdf</t>
+          <t>全电49-168-168.00.pdf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>25522000000046410325</t>
+          <t>25522000000052376874</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.21</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>204.5</v>
+        <v>168</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2226,32 +2215,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>全电46-176-176.71.pdf</t>
+          <t>全电50-300.00.pdf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>25522000000046381027</t>
+          <t>25522000000051183284</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.21</t>
+          <t>2025.06.06</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>176.71</v>
+        <v>300</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>34.51</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2263,32 +2251,31 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>全电47-204-204.50.pdf</t>
+          <t>全电51-168-168.00.pdf</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>25522000000046361203</t>
+          <t>25522000000052462948</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.21</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>204.5</v>
+        <v>168</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2300,32 +2287,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>全电48-213-213.00.pdf</t>
+          <t>全电52-1104-1104.45.pdf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>25452000000057378761</t>
+          <t>25522000000052084270</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.05.27</t>
+          <t>2025.06.10</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>213</v>
+        <v>1104.45</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2337,32 +2323,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>全电49-168-168.00.pdf</t>
+          <t>全电53-3313-3313.35.pdf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25522000000052376874</t>
+          <t>25522000000052104048</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.11</t>
+          <t>2025.06.10</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>168</v>
+        <v>3313.35</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2374,65 +2359,67 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>全电50-300.00.pdf</t>
+          <t>全电54-698.00.pdf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>25522000000051183284</t>
+          <t>25432000000076646741</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.06</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>300</v>
+        <v>698</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>34.51</t>
+          <t>39.51</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>34.51</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>全电51-168-168.00.pdf</t>
+          <t>全电55-218-218.00.pdf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>25522000000052462948</t>
+          <t>25522000000055135432</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.11</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2444,98 +2431,103 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>全电52-1104-1104.45.pdf</t>
+          <t>全电56-218-218.00.pdf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>25522000000052084270</t>
+          <t>25522000000055017936</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.10</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1104.45</v>
+        <v>218</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>127.06</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>127.06</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>全电53-3313-3313.35.pdf</t>
+          <t>全电57-191-191.00.pdf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>25522000000052104048</t>
+          <t>25522000000056377156</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.10</t>
+          <t>2025.06.26</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3313.35</v>
+        <v>191</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>187.55</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>187.55</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>全电54-698.00.pdf</t>
+          <t>全电59-47610.00.pdf</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>25432000000076646741</t>
+          <t>25462000000025317086</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.11</t>
+          <t>2025.07.18</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>698</v>
+        <v>47610</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>39.51</t>
+          <t>5477.26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>39.51</t>
+          <t>5477.26</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2547,32 +2539,31 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>全电55-218-218.00.pdf</t>
+          <t>全电60-21465.60.pdf</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>25522000000055135432</t>
+          <t>25462000000025633214</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.23</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>218</v>
+        <v>21465.6</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>2469.49</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>2469.49</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2584,32 +2575,31 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>全电56-218-218.00.pdf</t>
+          <t>全电61-580.00.pdf</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25522000000055017936</t>
+          <t>25452000000080629923</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.23</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>218</v>
+        <v>580</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2621,32 +2611,31 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>全电57-191-191.00.pdf</t>
+          <t>全电62-378-378.14.pdf</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25522000000056377156</t>
+          <t>25452000000079652493</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.06.26</t>
+          <t>2025.07.17</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>191</v>
+        <v>378.14</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2658,32 +2647,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>全电59-47610.00.pdf</t>
+          <t>全电63-49560.00.pdf</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25462000000025317086</t>
+          <t>25462000000026559889</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.07.18</t>
+          <t>2025.07.28</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47610</v>
+        <v>49560</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5477.26</t>
+          <t>5701.59</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5477.26</t>
+          <t>5701.59</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2695,32 +2683,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>全电60-21465.60.pdf</t>
+          <t>全电64-500.00.pdf</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25462000000025633214</t>
+          <t>25442000000455302098</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.07.21</t>
+          <t>2025.07.28</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21465.6</v>
+        <v>500</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2469.49</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2469.49</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2732,98 +2719,103 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>全电61-580.00.pdf</t>
+          <t>全电65-698-698.00.pdf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25452000000080629923</t>
+          <t>25432000000105454131</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.07.21</t>
+          <t>2025.08.06</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>580</v>
+        <v>698</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>39.51</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>32.83</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>全电62-378-378.14.pdf</t>
+          <t>全电66-41500-41500.00.pdf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25452000000079652493</t>
+          <t>25442000000486529176</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.07.17</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>378.14</v>
+        <v>41500</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>1208.74</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21.40</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>1208.74</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>全电63-49560.00.pdf</t>
+          <t>全电67-1104-1104.45.pdf</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25462000000026559889</t>
+          <t>25522000000068483040</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.07.28</t>
+          <t>2025.08.15</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>49560</v>
+        <v>1104.45</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5701.59</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5701.59</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2835,65 +2827,67 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>全电64-500.00.pdf</t>
+          <t>全电68-3313-3313.35.pdf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25442000000455302098</t>
+          <t>25522000000068375139</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.07.28</t>
+          <t>2025.08.15</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>500</v>
+        <v>3313.35</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28.30</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>187.55</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>全电65-698-698.00.pdf</t>
+          <t>全电69-539910.00.pdf</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>25432000000105454131</t>
+          <t>25462000000029695842</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.08.06</t>
+          <t>2025.08.18</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>698</v>
+        <v>539910</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>39.51</t>
+          <t>62113.54</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>39.51</t>
+          <t>62113.54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2905,32 +2899,31 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>全电66-41500-41500.00.pdf</t>
+          <t>国内旅客运输01-314.50.pdf</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>25442000000486529176</t>
+          <t>25529147483000026167</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.08.11</t>
+          <t>2025.01.07</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41500</v>
+        <v>314.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1208.74</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1208.74</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2942,98 +2935,111 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>全电67-1104-1104.45.pdf</t>
+          <t>国内旅客运输02-314.50.pdf</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25522000000068483040</t>
+          <t>25429165818000080864</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.08.15</t>
+          <t>2025.01.11</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1104.45</v>
+        <v>314.5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>127.06</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>127.06</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
+          <t>314.50</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>全电68-3313-3313.35.pdf</t>
+          <t>通行费01-35.01.pdf</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25522000000068375139</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>052001700112</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01819292</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.08.15</t>
+          <t>2025.01.10</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3313.35</v>
+        <v>35.01</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>187.55</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>187.55</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>全电69-539910-539910.00.pdf</t>
+          <t>通行费02-57.32.pdf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>25462000000029695842</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>66467330</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.08.18</t>
+          <t>2025.01.10</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>539910</v>
+        <v>57.32</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>62113.54</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>62113.54</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3045,32 +3051,35 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>全电69-539910.00.pdf</t>
+          <t>通行费03-63.38.pdf</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>25462000000029695842</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>66601619</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-.08.18</t>
+          <t>2025.01.10</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>539910</v>
+        <v>63.38</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>62113.54</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>62113.54</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3082,17 +3091,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>通行费01-35-35.01.pdf</t>
+          <t>通行费04-297.51.pdf</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01819292</t>
+          <t>76919237</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3101,16 +3110,16 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.01</v>
+        <v>297.51</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3122,17 +3131,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>通行费01-35.01.pdf</t>
+          <t>通行费05-67.02.pdf</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01819292</t>
+          <t>65019462</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3141,16 +3150,16 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.01</v>
+        <v>67.02</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3162,7 +3171,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>通行费02-57-57.32.pdf</t>
+          <t>通行费06-20.79.pdf</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3172,7 +3181,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>66467330</t>
+          <t>59101349</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3181,16 +3190,16 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>57.32</v>
+        <v>20.79</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3202,7 +3211,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>通行费02-57.32.pdf</t>
+          <t>通行费07-7.70.pdf</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3212,7 +3221,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>66467330</t>
+          <t>53240642</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3221,16 +3230,16 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>57.32</v>
+        <v>7.7</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3242,7 +3251,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>通行费03-63.38.pdf</t>
+          <t>通行费08-0.60.pdf</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3252,7 +3261,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>66601619</t>
+          <t>53523173</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3261,16 +3270,16 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>63.38</v>
+        <v>0.6</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3282,17 +3291,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>通行费04-297.51.pdf</t>
+          <t>通行费09-29.63.pdf</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>052001700112</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>76919237</t>
+          <t>18193581</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3301,16 +3310,16 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>297.51</v>
+        <v>29.63</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3322,17 +3331,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>通行费05-67.02.pdf</t>
+          <t>通行费10-26.82.pdf</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>052001700112</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>65019462</t>
+          <t>01794379</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3341,16 +3350,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>67.02</v>
+        <v>26.82</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3362,7 +3371,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>通行费06-20.79.pdf</t>
+          <t>通行费11-92.57.pdf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3372,7 +3381,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>59101349</t>
+          <t>67735304</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3381,16 +3390,16 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>20.79</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3402,7 +3411,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>通行费07-7.70.pdf</t>
+          <t>通行费12-170.43.pdf</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3412,7 +3421,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>53240642</t>
+          <t>66467341</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3421,16 +3430,16 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.7</v>
+        <v>170.43</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3442,7 +3451,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>通行费08-0.60.pdf</t>
+          <t>通行费13-120.21.pdf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3452,7 +3461,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>53523173</t>
+          <t>66415058</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3461,16 +3470,16 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.6</v>
+        <v>120.21</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3482,17 +3491,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>通行费09-29.63.pdf</t>
+          <t>通行费14-512.20.pdf</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>18193581</t>
+          <t>76718057</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3501,16 +3510,16 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.63</v>
+        <v>512.2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3522,17 +3531,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>通行费10-26.82.pdf</t>
+          <t>通行费15-74.80.pdf</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01794379</t>
+          <t>65019502</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3541,16 +3550,16 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.82</v>
+        <v>74.8</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3562,7 +3571,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>通行费11-92.57.pdf</t>
+          <t>通行费16-1.77.pdf</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3572,7 +3581,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>67735304</t>
+          <t>77668899</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3581,16 +3590,16 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>92.56999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3602,7 +3611,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>通行费12-170.43.pdf</t>
+          <t>通行费17-21.86.pdf</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3612,7 +3621,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>66467341</t>
+          <t>66956161</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3621,16 +3630,16 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>170.43</v>
+        <v>21.86</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3642,7 +3651,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>通行费13-120.21.pdf</t>
+          <t>通行费18-229.28.pdf</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3652,25 +3661,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>66415058</t>
+          <t>68114139</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.03.04</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>120.21</v>
+        <v>229.28</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3682,7 +3691,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>通行费14-512.20.pdf</t>
+          <t>通行费19-295.16.pdf</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3692,25 +3701,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>76718057</t>
+          <t>68004347</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.03.04</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>512.2</v>
+        <v>295.16</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3722,7 +3731,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>通行费15-74.80.pdf</t>
+          <t>通行费20-342.10.pdf</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3732,25 +3741,25 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>65019502</t>
+          <t>80265697</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.03.04</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>74.8</v>
+        <v>342.1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3762,7 +3771,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>通行费16-1.77.pdf</t>
+          <t>通行费21-1.16.pdf</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3772,25 +3781,25 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>77668899</t>
+          <t>77912584</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.03.04</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.77</v>
+        <v>1.16</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3802,35 +3811,35 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>通行费17-21.86.pdf</t>
+          <t>通行费22-10.55.pdf</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044002400112</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>66956161</t>
+          <t>74696260</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.03.04</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.86</v>
+        <v>10.55</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3842,17 +3851,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>通行费18-229.28.pdf</t>
+          <t>通行费23-5.71.pdf</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>68114139</t>
+          <t>25434256</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3861,16 +3870,16 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>229.28</v>
+        <v>5.71</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3882,7 +3891,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>通行费19-295.16.pdf</t>
+          <t>通行费24-15.40.pdf</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3892,7 +3901,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>68004347</t>
+          <t>53258375</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3901,16 +3910,16 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>295.16</v>
+        <v>15.4</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -3922,7 +3931,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>通行费20-342.10.pdf</t>
+          <t>通行费25-9.30.pdf</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3932,7 +3941,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>80265697</t>
+          <t>54051000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3941,16 +3950,16 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>342.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -3962,17 +3971,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>通行费21-1.16.pdf</t>
+          <t>通行费26-59.26.pdf</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>052001700112</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>77912584</t>
+          <t>18226809</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3981,16 +3990,16 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1.16</v>
+        <v>59.26</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4002,17 +4011,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>通行费22-10.55.pdf</t>
+          <t>通行费27-60.59.pdf</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>044002400112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>74696260</t>
+          <t>67799604</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4021,16 +4030,16 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.55</v>
+        <v>60.59</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4042,17 +4051,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>通行费23-5.71.pdf</t>
+          <t>通行费28-29.07.pdf</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>044001843112</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>25434256</t>
+          <t>68988852</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4061,16 +4070,16 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.71</v>
+        <v>29.07</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4082,7 +4091,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>通行费24-15.40.pdf</t>
+          <t>通行费29-171.96.pdf</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4092,7 +4101,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>53258375</t>
+          <t>68114141</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4101,16 +4110,16 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>15.4</v>
+        <v>171.96</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4122,17 +4131,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>通行费25-9.30.pdf</t>
+          <t>通行费30-4.63.pdf</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044001717112</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>54051000</t>
+          <t>09398559</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4141,16 +4150,16 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>9.300000000000001</v>
+        <v>4.63</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4162,17 +4171,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>通行费26-59.26.pdf</t>
+          <t>通行费31-11.24.pdf</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>044001723112</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>18226809</t>
+          <t>30469183</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4181,16 +4190,16 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>59.26</v>
+        <v>11.24</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4202,17 +4211,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>通行费27-60.59.pdf</t>
+          <t>通行费32-14.24.pdf</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044001723112</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>67799604</t>
+          <t>28723200</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4221,16 +4230,16 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.59</v>
+        <v>14.24</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4242,17 +4251,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>通行费28-29.07.pdf</t>
+          <t>通行费33-22.98.pdf</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>044001843112</t>
+          <t>044001723112</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>68988852</t>
+          <t>31531308</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4261,16 +4270,16 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.07</v>
+        <v>22.98</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4282,17 +4291,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>通行费29-171.96.pdf</t>
+          <t>通行费34-21.54.pdf</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044001739112</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>68114141</t>
+          <t>14293302</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4301,16 +4310,16 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>171.96</v>
+        <v>21.54</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4322,17 +4331,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>通行费30-4.63.pdf</t>
+          <t>通行费35-40.81.pdf</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>044001717112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>09398559</t>
+          <t>34133249</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4341,16 +4350,16 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4.63</v>
+        <v>40.81</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4362,17 +4371,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>通行费31-11.24.pdf</t>
+          <t>通行费36-114.14.pdf</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>044001723112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>30469183</t>
+          <t>74315362</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4381,16 +4390,16 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>11.24</v>
+        <v>114.14</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4402,17 +4411,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>通行费32-14.24.pdf</t>
+          <t>通行费37-31.78.pdf</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>044001723112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>28723200</t>
+          <t>74518106</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4421,16 +4430,16 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.24</v>
+        <v>31.78</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4442,17 +4451,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>通行费33-22.98.pdf</t>
+          <t>通行费38-24.18.pdf</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>044001723112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>31531308</t>
+          <t>75217428</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4461,16 +4470,16 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.98</v>
+        <v>24.18</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4482,17 +4491,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>通行费34-21.54.pdf</t>
+          <t>通行费39-40.45.pdf</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>044001739112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>14293302</t>
+          <t>70159351</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4501,16 +4510,16 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.54</v>
+        <v>40.45</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4522,17 +4531,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>通行费35-40.81.pdf</t>
+          <t>通行费40-155.92.pdf</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>34133249</t>
+          <t>68004349</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4541,16 +4550,16 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.81</v>
+        <v>155.92</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4562,17 +4571,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>通行费36-114.14.pdf</t>
+          <t>通行费41-420.12.pdf</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>74315362</t>
+          <t>80194120</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4581,16 +4590,16 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>114.14</v>
+        <v>420.12</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4602,17 +4611,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>通行费37-31.78.pdf</t>
+          <t>通行费42-3.16.pdf</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>74518106</t>
+          <t>77912585</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4621,16 +4630,16 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.78</v>
+        <v>3.16</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4642,17 +4651,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>通行费38-24.18.pdf</t>
+          <t>通行费43-14.30.pdf</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>75217428</t>
+          <t>67046554</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4661,16 +4670,16 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.18</v>
+        <v>14.3</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4682,17 +4691,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>通行费39-40.45.pdf</t>
+          <t>通行费44-158.63.pdf</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>044002400112</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>70159351</t>
+          <t>83367223</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4701,16 +4710,16 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.45</v>
+        <v>158.63</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4722,17 +4731,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>通行费40-155.92.pdf</t>
+          <t>通行费45-18.04.pdf</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044002400112</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>68004349</t>
+          <t>82891548</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4741,16 +4750,16 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>155.92</v>
+        <v>18.04</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4762,7 +4771,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>通行费41-420.12.pdf</t>
+          <t>通行费46-57.19.pdf</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4772,25 +4781,25 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>80194120</t>
+          <t>76630797</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025.03.04</t>
+          <t>2025.03.03</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>420.12</v>
+        <v>57.19</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4802,35 +4811,31 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>通行费42-3.16.pdf</t>
+          <t>高铁电子发票12-115.50.pdf</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>052001800112</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>77912585</t>
-        </is>
-      </c>
+          <t>25349119343000116078</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025.03.04</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3.16</v>
+        <v>115.5</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>115.50</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>115.50</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4842,35 +4847,31 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>通行费43-14.30.pdf</t>
+          <t>高铁电子发票13-300.00.pdf</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>052001800112</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>67046554</t>
-        </is>
-      </c>
+          <t>25349119423001506679</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025.03.04</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>14.3</v>
+        <v>300</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4882,35 +4883,31 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>通行费44-158.63.pdf</t>
+          <t>高铁电子发票14-186.00.pdf</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>044002400112</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>83367223</t>
-        </is>
-      </c>
+          <t>25419165773002419690</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025.03.04</t>
+          <t>2025.06.18</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>158.63</v>
+        <v>186</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>186.00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>186.00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4922,35 +4919,31 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>通行费45-18.04.pdf</t>
+          <t>高铁电子发票15-314.50.pdf</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>044002400112</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>82891548</t>
-        </is>
-      </c>
+          <t>25429165818001648820</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025.03.04</t>
+          <t>2025.06.24</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.04</v>
+        <v>314.5</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -4962,35 +4955,31 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>通行费46-57.19.pdf</t>
+          <t>高铁电子发票19-9.00.pdf</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>052001800112</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>76630797</t>
-        </is>
-      </c>
+          <t>25419165705000098019</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025.03.03</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>57.19</v>
+        <v>9</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5002,31 +4991,31 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>高铁电子发票12-115-115.50.pdf</t>
+          <t>高铁电子发票20-139.00.pdf</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>25349119343000116078</t>
+          <t>25509130077000592376</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>115.5</v>
+        <v>139</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5038,31 +5027,31 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>高铁电子发票12-115-115.50.pdf</t>
+          <t>高铁电子票16-786.50.pdf</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>25349119343000116078</t>
+          <t>25529147483000542835</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>115.5</v>
+        <v>786.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>786.50</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>786.50</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5074,286 +5063,34 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>高铁电子发票12-115.50.pdf</t>
+          <t>高铁电子票18-109.00.pdf</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>25349119343000116078</t>
+          <t>25419165499000036231</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>115.5</v>
+        <v>109</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>高铁电子发票13-300-300.00.pdf</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>25349119423001506679</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>300</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>高铁电子发票13-300-300.00.pdf</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>25349119423001506679</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>300</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>高铁电子发票13-300.00.pdf</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>25349119423001506679</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>300</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>24.77</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>高铁电子发票19-9.00.pdf</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>25419165705000098019</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2025-08-11</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>9</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>高铁电子发票20-139.00.pdf</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>25509130077000592376</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2025-08-11</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>139</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>高铁电子票16-786.50.pdf</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>25529147483000542835</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>786.5</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>64.94</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>64.94</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>911202221030604602</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>高铁电子票18-109.00.pdf</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>25419165499000036231</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2025-08-11</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>109</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
         <is>
           <t>911202221030604602</t>
         </is>

--- a/output/invoice_analyse.xlsx
+++ b/output/invoice_analyse.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>全电01-住宿1638-1638.00.pdf</t>
+          <t>全电01-住宿1638</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>全电02-399-399.00.pdf</t>
+          <t>全电02-399</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>全电03-2100-2100.00.pdf</t>
+          <t>全电03-2100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>全电04-204-204.00.pdf</t>
+          <t>全电04-204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>全电05-196-196.00.pdf</t>
+          <t>全电05-196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,7 +659,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>全电06-400-400.00.pdf</t>
+          <t>全电06-400</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -695,7 +695,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>全电07-1556-1556.00.pdf</t>
+          <t>全电07-1556</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>全电08-153-153.53.pdf</t>
+          <t>全电08-153</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>全电09-177-177.15.pdf</t>
+          <t>全电09-177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>全电10-153-153.53.pdf</t>
+          <t>全电10-153</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>全电11-300.00.pdf</t>
+          <t>全电11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>全电12-191-191.82.pdf</t>
+          <t>全电12-191</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -915,7 +915,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>全电13-369-369.00.pdf</t>
+          <t>全电13-369</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>全电14-373-373.00.pdf</t>
+          <t>全电14-373</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>全电15-300-300.00.pdf</t>
+          <t>全电15-300</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>全电16-191-191.82.pdf</t>
+          <t>全电16-191</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>全电17-191-191.82.pdf</t>
+          <t>全电17-191</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>全电18-191.82.pdf</t>
+          <t>全电18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1135,7 +1135,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>全电19-198-198.00.pdf</t>
+          <t>全电19-198</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1171,7 +1171,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>全电20-219-219.00.pdf</t>
+          <t>全电20-219</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1207,7 +1207,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>全电21-198-198.00.pdf</t>
+          <t>全电21-198</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>全电22-300.00.pdf</t>
+          <t>全电22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1279,7 +1279,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>全电23-219-219.00.pdf</t>
+          <t>全电23-219</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>全电24-1104-1104.45.pdf</t>
+          <t>全电24-1104</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1351,7 +1351,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>全电25-3313-3313.35.pdf</t>
+          <t>全电25-3313</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1387,7 +1387,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>全电26-188-188.00.pdf</t>
+          <t>全电26-188</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1423,7 +1423,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>全电27-235-235.00.pdf</t>
+          <t>全电27-235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>全电28-281-281.00.pdf</t>
+          <t>全电28-281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1495,7 +1495,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>全电29-235.00.pdf</t>
+          <t>全电29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1531,7 +1531,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>全电30-188-188.00.pdf</t>
+          <t>全电30-188</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>全电31-235-235.00.pdf</t>
+          <t>全电31-235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>全电32-281-281.00.pdf</t>
+          <t>全电32-281</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1639,7 +1639,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>全电33-758.00.pdf</t>
+          <t>全电33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1675,7 +1675,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>全电34-198-198.00.pdf</t>
+          <t>全电34-198</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1711,7 +1711,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>全电35-300.00.pdf</t>
+          <t>全电35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1747,7 +1747,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>全电36-198-198.00.pdf</t>
+          <t>全电36-198</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1783,7 +1783,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>全电37-207-207.00.pdf</t>
+          <t>全电37-207</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1819,7 +1819,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>全电38-207-207.00.pdf</t>
+          <t>全电38-207</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1855,7 +1855,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>全电39-200-200.00.pdf</t>
+          <t>全电39-200</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>全电40-233-233.00.pdf</t>
+          <t>全电40-233</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1927,7 +1927,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>全电41-218.00.pdf</t>
+          <t>全电41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1963,7 +1963,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>全电42-218.00.pdf</t>
+          <t>全电42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1999,7 +1999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>全电43-218.00.pdf</t>
+          <t>全电43</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2035,7 +2035,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>全电45-204-204.50.pdf</t>
+          <t>全电45-204</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2071,7 +2071,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>全电46-176-176.71.pdf</t>
+          <t>全电46-176</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2107,7 +2107,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>全电47-204-204.50.pdf</t>
+          <t>全电47-204</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2143,7 +2143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>全电48-213-213.00.pdf</t>
+          <t>全电48-213</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>全电49-168-168.00.pdf</t>
+          <t>全电49-168</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2215,7 +2215,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>全电50-300.00.pdf</t>
+          <t>全电50</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2251,7 +2251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>全电51-168-168.00.pdf</t>
+          <t>全电51-168</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2287,7 +2287,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>全电52-1104-1104.45.pdf</t>
+          <t>全电52-1104</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2323,7 +2323,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>全电53-3313-3313.35.pdf</t>
+          <t>全电53-3313</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2359,7 +2359,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>全电54-698.00.pdf</t>
+          <t>全电54</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2395,7 +2395,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>全电55-218-218.00.pdf</t>
+          <t>全电55-218</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2431,7 +2431,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>全电56-218-218.00.pdf</t>
+          <t>全电56-218</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2467,7 +2467,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>全电57-191-191.00.pdf</t>
+          <t>全电57-191</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2503,7 +2503,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>全电59-47610.00.pdf</t>
+          <t>全电59</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2539,7 +2539,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>全电60-21465.60.pdf</t>
+          <t>全电60</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2575,7 +2575,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>全电61-580.00.pdf</t>
+          <t>全电61</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2611,7 +2611,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>全电62-378-378.14.pdf</t>
+          <t>全电62-378</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2647,7 +2647,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>全电63-49560.00.pdf</t>
+          <t>全电63</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2683,7 +2683,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>全电64-500.00.pdf</t>
+          <t>全电64</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2719,7 +2719,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>全电65-698-698.00.pdf</t>
+          <t>全电65-698</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2755,7 +2755,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>全电66-41500-41500.00.pdf</t>
+          <t>全电66-41500</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2791,7 +2791,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>全电67-1104-1104.45.pdf</t>
+          <t>全电67-1104</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2827,7 +2827,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>全电68-3313-3313.35.pdf</t>
+          <t>全电68-3313</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2863,7 +2863,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>全电69-539910.00.pdf</t>
+          <t>全电69</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2899,7 +2899,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>国内旅客运输01-314.50.pdf</t>
+          <t>国内旅客运输01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2935,7 +2935,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>国内旅客运输02-314.50.pdf</t>
+          <t>国内旅客运输02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>通行费01-35.01.pdf</t>
+          <t>通行费01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3011,7 +3011,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>通行费02-57.32.pdf</t>
+          <t>通行费02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3051,7 +3051,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>通行费03-63.38.pdf</t>
+          <t>通行费03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3091,7 +3091,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>通行费04-297.51.pdf</t>
+          <t>通行费04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>通行费05-67.02.pdf</t>
+          <t>通行费05</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3171,7 +3171,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>通行费06-20.79.pdf</t>
+          <t>通行费06</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3211,7 +3211,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>通行费07-7.70.pdf</t>
+          <t>通行费07</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3251,7 +3251,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>通行费08-0.60.pdf</t>
+          <t>通行费08</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3291,7 +3291,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>通行费09-29.63.pdf</t>
+          <t>通行费09</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3331,7 +3331,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>通行费10-26.82.pdf</t>
+          <t>通行费10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3371,7 +3371,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>通行费11-92.57.pdf</t>
+          <t>通行费11</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3411,7 +3411,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>通行费12-170.43.pdf</t>
+          <t>通行费12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3451,7 +3451,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>通行费13-120.21.pdf</t>
+          <t>通行费13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3491,7 +3491,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>通行费14-512.20.pdf</t>
+          <t>通行费14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3531,7 +3531,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>通行费15-74.80.pdf</t>
+          <t>通行费15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3571,7 +3571,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>通行费16-1.77.pdf</t>
+          <t>通行费16</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>通行费17-21.86.pdf</t>
+          <t>通行费17</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>通行费18-229.28.pdf</t>
+          <t>通行费18</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3691,7 +3691,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>通行费19-295.16.pdf</t>
+          <t>通行费19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3731,7 +3731,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>通行费20-342.10.pdf</t>
+          <t>通行费20</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3771,7 +3771,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>通行费21-1.16.pdf</t>
+          <t>通行费21</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3811,7 +3811,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>通行费22-10.55.pdf</t>
+          <t>通行费22</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3851,7 +3851,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>通行费23-5.71.pdf</t>
+          <t>通行费23</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3891,7 +3891,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>通行费24-15.40.pdf</t>
+          <t>通行费24</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3931,7 +3931,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>通行费25-9.30.pdf</t>
+          <t>通行费25</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3971,7 +3971,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>通行费26-59.26.pdf</t>
+          <t>通行费26</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>通行费27-60.59.pdf</t>
+          <t>通行费27</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4051,7 +4051,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>通行费28-29.07.pdf</t>
+          <t>通行费28</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>通行费29-171.96.pdf</t>
+          <t>通行费29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4131,7 +4131,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>通行费30-4.63.pdf</t>
+          <t>通行费30</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4171,7 +4171,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>通行费31-11.24.pdf</t>
+          <t>通行费31</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4211,7 +4211,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>通行费32-14.24.pdf</t>
+          <t>通行费32</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4251,7 +4251,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>通行费33-22.98.pdf</t>
+          <t>通行费33</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4291,7 +4291,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>通行费34-21.54.pdf</t>
+          <t>通行费34</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4331,7 +4331,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>通行费35-40.81.pdf</t>
+          <t>通行费35</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4371,7 +4371,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>通行费36-114.14.pdf</t>
+          <t>通行费36</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4411,7 +4411,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>通行费37-31.78.pdf</t>
+          <t>通行费37</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4451,7 +4451,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>通行费38-24.18.pdf</t>
+          <t>通行费38</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4491,7 +4491,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>通行费39-40.45.pdf</t>
+          <t>通行费39</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4531,7 +4531,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>通行费40-155.92.pdf</t>
+          <t>通行费40</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4571,7 +4571,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>通行费41-420.12.pdf</t>
+          <t>通行费41</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4611,7 +4611,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>通行费42-3.16.pdf</t>
+          <t>通行费42</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4651,7 +4651,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>通行费43-14.30.pdf</t>
+          <t>通行费43</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4691,7 +4691,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>通行费44-158.63.pdf</t>
+          <t>通行费44</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4731,7 +4731,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>通行费45-18.04.pdf</t>
+          <t>通行费45</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4771,7 +4771,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>通行费46-57.19.pdf</t>
+          <t>通行费46</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4811,7 +4811,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>高铁电子发票12-115.50.pdf</t>
+          <t>高铁电子发票12</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4847,7 +4847,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>高铁电子发票13-300.00.pdf</t>
+          <t>高铁电子发票13</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4883,7 +4883,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>高铁电子发票14-186.00.pdf</t>
+          <t>高铁电子发票14</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4919,7 +4919,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>高铁电子发票15-314.50.pdf</t>
+          <t>高铁电子发票15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4955,7 +4955,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>高铁电子发票19-9.00.pdf</t>
+          <t>高铁电子发票19</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4991,7 +4991,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>高铁电子发票20-139.00.pdf</t>
+          <t>高铁电子发票20</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5027,7 +5027,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>高铁电子票16-786.50.pdf</t>
+          <t>高铁电子票16</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>高铁电子票18-109.00.pdf</t>
+          <t>高铁电子票18</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">

--- a/output/invoice_analyse.xlsx
+++ b/output/invoice_analyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,31 +2503,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>全电59</t>
+          <t>全电58</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>25462000000025317086</t>
+          <t xml:space="preserve"> 限 公 司 湖 北 分 公 司
+付 杰</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025.07.18</t>
+          <t xml:space="preserve">
+202.07.10</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47610</v>
+        <v>6788.57</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5477.26</t>
+          <t>384.26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5477.26</t>
+          <t>384.26</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2539,31 +2541,31 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>全电60</t>
+          <t>全电59</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>25462000000025633214</t>
+          <t>25462000000025317086</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025.07.21</t>
+          <t>2025.07.18</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21465.6</v>
+        <v>47610</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2469.49</t>
+          <t>5477.26</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2469.49</t>
+          <t>5477.26</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2575,12 +2577,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>全电61</t>
+          <t>全电60</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25452000000080629923</t>
+          <t>25462000000025633214</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2590,16 +2592,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>580</v>
+        <v>21465.6</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>2469.49</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>2469.49</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2611,31 +2613,31 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>全电62-378</t>
+          <t>全电61</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25452000000079652493</t>
+          <t>25452000000080629923</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025.07.17</t>
+          <t>2025.07.21</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>378.14</v>
+        <v>580</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2647,31 +2649,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>全电63</t>
+          <t>全电62-378</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25462000000026559889</t>
+          <t>25452000000079652493</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025.07.28</t>
+          <t>2025.07.17</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>49560</v>
+        <v>378.14</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5701.59</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5701.59</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2683,12 +2685,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>全电64</t>
+          <t>全电63</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25442000000455302098</t>
+          <t>25462000000026559889</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2698,16 +2700,16 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>500</v>
+        <v>49560</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>5701.59</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>5701.59</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2719,31 +2721,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>全电65-698</t>
+          <t>全电64</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25432000000105454131</t>
+          <t>25442000000455302098</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025.08.06</t>
+          <t>2025.07.28</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>698</v>
+        <v>500</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>39.51</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>39.51</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2755,31 +2757,31 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>全电66-41500</t>
+          <t>全电65-698</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25442000000486529176</t>
+          <t>25432000000105454131</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025.08.11</t>
+          <t>2025.08.06</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>41500</v>
+        <v>698</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1208.74</t>
+          <t>39.51</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1208.74</t>
+          <t>39.51</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2791,31 +2793,31 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>全电67-1104</t>
+          <t>全电66-41500</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25522000000068483040</t>
+          <t>25442000000486529176</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025.08.15</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1104.45</v>
+        <v>41500</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>127.06</t>
+          <t>1208.74</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>127.06</t>
+          <t>1208.74</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2827,12 +2829,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>全电68-3313</t>
+          <t>全电67-1104</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25522000000068375139</t>
+          <t>25522000000068483040</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2842,16 +2844,16 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3313.35</v>
+        <v>1104.45</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>187.55</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>187.55</t>
+          <t>127.06</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2863,31 +2865,31 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>全电69</t>
+          <t>全电68-3313</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>25462000000029695842</t>
+          <t>25522000000068375139</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025.08.18</t>
+          <t>2025.08.15</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>539910</v>
+        <v>3313.35</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>62113.54</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>62113.54</t>
+          <t>187.55</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2899,31 +2901,31 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>国内旅客运输01</t>
+          <t>全电69</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>25529147483000026167</t>
+          <t>25462000000029695842</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025.01.07</t>
+          <t>2025.08.18</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>314.5</v>
+        <v>539910</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>314.50</t>
+          <t>62113.54</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>314.50</t>
+          <t>62113.54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2935,18 +2937,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>国内旅客运输02</t>
+          <t>国内旅客运输01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25429165818000080864</t>
+          <t>25529147483000026167</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025.01.11</t>
+          <t>2025.01.07</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2971,35 +2973,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>通行费01</t>
+          <t>国内旅客运输02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>052001700112</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>01819292</t>
-        </is>
-      </c>
+          <t>25429165818000080864</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.01.11</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.01</v>
+        <v>314.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3011,17 +3009,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>通行费02</t>
+          <t>通行费01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>052001700112</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>66467330</t>
+          <t>01819292</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3030,16 +3028,16 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>57.32</v>
+        <v>35.01</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3051,7 +3049,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>通行费03</t>
+          <t>通行费02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3061,7 +3059,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>66601619</t>
+          <t>66467330</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3070,16 +3068,16 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>63.38</v>
+        <v>57.32</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3091,7 +3089,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>通行费04</t>
+          <t>通行费03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3101,7 +3099,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>76919237</t>
+          <t>66601619</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3110,16 +3108,16 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>297.51</v>
+        <v>63.38</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3131,7 +3129,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>通行费05</t>
+          <t>通行费04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3141,7 +3139,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>65019462</t>
+          <t>76919237</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3150,16 +3148,16 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>67.02</v>
+        <v>297.51</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3171,7 +3169,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>通行费06</t>
+          <t>通行费05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3181,7 +3179,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>59101349</t>
+          <t>65019462</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3190,16 +3188,16 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.79</v>
+        <v>67.02</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3211,7 +3209,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>通行费07</t>
+          <t>通行费06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3221,7 +3219,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>53240642</t>
+          <t>59101349</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3230,16 +3228,16 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.7</v>
+        <v>20.79</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3251,7 +3249,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>通行费08</t>
+          <t>通行费07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3261,7 +3259,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>53523173</t>
+          <t>53240642</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3270,16 +3268,16 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3291,17 +3289,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>通行费09</t>
+          <t>通行费08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>18193581</t>
+          <t>53523173</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3310,16 +3308,16 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.63</v>
+        <v>0.6</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3331,7 +3329,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>通行费10</t>
+          <t>通行费09</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3341,7 +3339,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01794379</t>
+          <t>18193581</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3350,16 +3348,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.82</v>
+        <v>29.63</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3371,17 +3369,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>通行费11</t>
+          <t>通行费10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>052001700112</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>67735304</t>
+          <t>01794379</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3390,16 +3388,16 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>92.56999999999999</v>
+        <v>26.82</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3411,7 +3409,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>通行费12</t>
+          <t>通行费11</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3421,7 +3419,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>66467341</t>
+          <t>67735304</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3430,16 +3428,16 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>170.43</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3451,7 +3449,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>通行费13</t>
+          <t>通行费12</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3461,7 +3459,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>66415058</t>
+          <t>66467341</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3470,16 +3468,16 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>120.21</v>
+        <v>170.43</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3491,7 +3489,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>通行费14</t>
+          <t>通行费13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3501,7 +3499,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>76718057</t>
+          <t>66415058</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3510,16 +3508,16 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>512.2</v>
+        <v>120.21</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3531,7 +3529,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>通行费15</t>
+          <t>通行费14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3541,7 +3539,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>65019502</t>
+          <t>76718057</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3550,16 +3548,16 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.8</v>
+        <v>512.2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3571,7 +3569,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>通行费16</t>
+          <t>通行费15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3581,7 +3579,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>77668899</t>
+          <t>65019502</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3590,16 +3588,16 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.77</v>
+        <v>74.8</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3611,7 +3609,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>通行费17</t>
+          <t>通行费16</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3621,7 +3619,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>66956161</t>
+          <t>77668899</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3630,16 +3628,16 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>21.86</v>
+        <v>1.77</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3651,7 +3649,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>通行费18</t>
+          <t>通行费17</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3661,25 +3659,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>68114139</t>
+          <t>66956161</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025.03.04</t>
+          <t>2025.01.10</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>229.28</v>
+        <v>21.86</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3691,7 +3689,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>通行费19</t>
+          <t>通行费18</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3701,7 +3699,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>68004347</t>
+          <t>68114139</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3710,16 +3708,16 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>295.16</v>
+        <v>229.28</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3731,7 +3729,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>通行费20</t>
+          <t>通行费19</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3741,7 +3739,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>80265697</t>
+          <t>68004347</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3750,16 +3748,16 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>342.1</v>
+        <v>295.16</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3771,7 +3769,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>通行费21</t>
+          <t>通行费20</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3781,7 +3779,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>77912584</t>
+          <t>80265697</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3790,16 +3788,16 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.16</v>
+        <v>342.1</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3811,17 +3809,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>通行费22</t>
+          <t>通行费21</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>044002400112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>74696260</t>
+          <t>77912584</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3830,16 +3828,16 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.55</v>
+        <v>1.16</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3851,17 +3849,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>通行费23</t>
+          <t>通行费22</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>044002400112</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>25434256</t>
+          <t>74696260</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3870,16 +3868,16 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5.71</v>
+        <v>10.55</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3891,17 +3889,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>通行费24</t>
+          <t>通行费23</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>53258375</t>
+          <t>25434256</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3910,16 +3908,16 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>15.4</v>
+        <v>5.71</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -3931,7 +3929,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>通行费25</t>
+          <t>通行费24</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3941,7 +3939,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>54051000</t>
+          <t>53258375</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3950,16 +3948,16 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.300000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -3971,17 +3969,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>通行费26</t>
+          <t>通行费25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>052001700112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>18226809</t>
+          <t>54051000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3990,16 +3988,16 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>59.26</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4011,17 +4009,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>通行费27</t>
+          <t>通行费26</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>052001700112</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>67799604</t>
+          <t>18226809</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4030,16 +4028,16 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>60.59</v>
+        <v>59.26</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4051,17 +4049,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>通行费28</t>
+          <t>通行费27</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>044001843112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>68988852</t>
+          <t>67799604</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4070,16 +4068,16 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.07</v>
+        <v>60.59</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4091,17 +4089,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>通行费29</t>
+          <t>通行费28</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044001843112</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>68114141</t>
+          <t>68988852</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4110,16 +4108,16 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>171.96</v>
+        <v>29.07</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4131,17 +4129,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>通行费30</t>
+          <t>通行费29</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>044001717112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>09398559</t>
+          <t>68114141</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4150,16 +4148,16 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4.63</v>
+        <v>171.96</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4171,17 +4169,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>通行费31</t>
+          <t>通行费30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>044001723112</t>
+          <t>044001717112</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>30469183</t>
+          <t>09398559</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4190,16 +4188,16 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.24</v>
+        <v>4.63</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4211,7 +4209,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>通行费32</t>
+          <t>通行费31</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4221,7 +4219,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>28723200</t>
+          <t>30469183</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4230,16 +4228,16 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>14.24</v>
+        <v>11.24</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4251,7 +4249,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>通行费33</t>
+          <t>通行费32</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4261,7 +4259,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>31531308</t>
+          <t>28723200</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4270,16 +4268,16 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>22.98</v>
+        <v>14.24</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4291,17 +4289,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>通行费34</t>
+          <t>通行费33</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>044001739112</t>
+          <t>044001723112</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14293302</t>
+          <t>31531308</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4310,16 +4308,16 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.54</v>
+        <v>22.98</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4331,17 +4329,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>通行费35</t>
+          <t>通行费34</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>045002200112</t>
+          <t>044001739112</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>34133249</t>
+          <t>14293302</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4350,16 +4348,16 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.81</v>
+        <v>21.54</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4371,7 +4369,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>通行费36</t>
+          <t>通行费35</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4381,7 +4379,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>74315362</t>
+          <t>34133249</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4390,16 +4388,16 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>114.14</v>
+        <v>40.81</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4411,7 +4409,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>通行费37</t>
+          <t>通行费36</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4421,7 +4419,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>74518106</t>
+          <t>74315362</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4430,16 +4428,16 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.78</v>
+        <v>114.14</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4451,7 +4449,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>通行费38</t>
+          <t>通行费37</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4461,7 +4459,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>75217428</t>
+          <t>74518106</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4470,16 +4468,16 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.18</v>
+        <v>31.78</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4491,7 +4489,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>通行费39</t>
+          <t>通行费38</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4501,7 +4499,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>70159351</t>
+          <t>75217428</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4510,16 +4508,16 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.45</v>
+        <v>24.18</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4531,17 +4529,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>通行费40</t>
+          <t>通行费39</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>045002200112</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>68004349</t>
+          <t>70159351</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4550,16 +4548,16 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>155.92</v>
+        <v>40.45</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4571,7 +4569,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>通行费41</t>
+          <t>通行费40</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4581,7 +4579,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>80194120</t>
+          <t>68004349</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4590,16 +4588,16 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>420.12</v>
+        <v>155.92</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4611,7 +4609,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>通行费42</t>
+          <t>通行费41</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4621,7 +4619,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>77912585</t>
+          <t>80194120</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4630,16 +4628,16 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.16</v>
+        <v>420.12</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4651,7 +4649,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>通行费43</t>
+          <t>通行费42</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4661,7 +4659,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>67046554</t>
+          <t>77912585</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4670,16 +4668,16 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.3</v>
+        <v>3.16</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4691,17 +4689,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>通行费44</t>
+          <t>通行费43</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>044002400112</t>
+          <t>052001800112</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>83367223</t>
+          <t>67046554</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4710,16 +4708,16 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>158.63</v>
+        <v>14.3</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4731,7 +4729,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>通行费45</t>
+          <t>通行费44</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4741,7 +4739,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>82891548</t>
+          <t>83367223</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4750,16 +4748,16 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>18.04</v>
+        <v>158.63</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4771,35 +4769,35 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>通行费46</t>
+          <t>通行费45</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>052001800112</t>
+          <t>044002400112</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>76630797</t>
+          <t>82891548</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025.03.03</t>
+          <t>2025.03.04</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.19</v>
+        <v>18.04</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4811,31 +4809,35 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>高铁电子发票12</t>
+          <t>通行费46</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>25349119343000116078</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>052001800112</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>76630797</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.03.03</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>115.5</v>
+        <v>57.19</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>115.50</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>115.50</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4847,12 +4849,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>高铁电子发票13</t>
+          <t>高铁电子发票12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>25349119423001506679</t>
+          <t>25349119343000116078</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4862,16 +4864,16 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>300</v>
+        <v>115.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>115.50</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>115.50</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4883,31 +4885,31 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>高铁电子发票14</t>
+          <t>高铁电子发票13</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>25419165773002419690</t>
+          <t>25349119423001506679</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025.06.18</t>
+          <t>2025.06.25</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>186.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>186.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4919,31 +4921,31 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>高铁电子发票15</t>
+          <t>高铁电子发票14</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>25429165818001648820</t>
+          <t>25419165773002419690</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025.06.24</t>
+          <t>2025.06.18</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>314.5</v>
+        <v>186</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>314.50</t>
+          <t>186.00</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>314.50</t>
+          <t>186.00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -4955,31 +4957,31 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>高铁电子发票19</t>
+          <t>高铁电子发票15</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>25419165705000098019</t>
+          <t>25429165818001648820</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025.08.11</t>
+          <t>2025.06.24</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>314.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>314.50</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -4991,12 +4993,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>高铁电子发票20</t>
+          <t>高铁电子发票19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>25509130077000592376</t>
+          <t>25419165705000098019</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5006,16 +5008,16 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5027,31 +5029,31 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>高铁电子票16</t>
+          <t>高铁电子发票20</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>25529147483000542835</t>
+          <t>25509130077000592376</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025.06.25</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>786.5</v>
+        <v>139</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>786.50</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>786.50</t>
+          <t>139.00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5063,34 +5065,70 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>高铁电子票18</t>
+          <t>高铁电子票16</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>25419165499000036231</t>
+          <t>25529147483000542835</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>786.50</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>786.50</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>911202221030604602</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>高铁电子票18</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>25419165499000036231</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>2025.08.11</t>
         </is>
       </c>
-      <c r="E124" t="n">
+      <c r="E125" t="n">
         <v>109</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>109.00</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>109.00</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>911202221030604602</t>
         </is>
